--- a/adding_roles_bot.xlsx
+++ b/adding_roles_bot.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\adding-roles-bot-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5608C0FD-1E4D-4C59-BEF6-A6456C840CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA7F096-10DC-4B6D-B855-7290F67B13A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
-    <sheet name="debug" sheetId="2" r:id="rId2"/>
-    <sheet name="chats" sheetId="3" r:id="rId3"/>
-    <sheet name="Users" sheetId="4" r:id="rId4"/>
-    <sheet name="Roles" sheetId="5" r:id="rId5"/>
-    <sheet name="Log" sheetId="6" r:id="rId6"/>
+    <sheet name="chats" sheetId="3" r:id="rId2"/>
+    <sheet name="Users" sheetId="4" r:id="rId3"/>
+    <sheet name="Roles" sheetId="5" r:id="rId4"/>
+    <sheet name="Log" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -494,7 +493,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -601,38 +600,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -672,7 +646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -727,7 +701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -751,7 +725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
